--- a/data/20200708_fencing competiton.xlsx
+++ b/data/20200708_fencing competiton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanamiohta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\member\okukubo\2020-sports-compe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B25984-9F96-6641-9011-D8F5B6449E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6E1615-27F4-488A-B781-6339B1F16171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="2120" windowWidth="28300" windowHeight="17440" xr2:uid="{72208FAB-5C2C-2943-B072-BB4BB1185E0F}"/>
+    <workbookView xWindow="5070" yWindow="2520" windowWidth="19320" windowHeight="19080" xr2:uid="{72208FAB-5C2C-2943-B072-BB4BB1185E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -156,9 +150,6 @@
     <t>JORGENSEN Patrick_DEN-CIMINI Gabriele_ITA</t>
   </si>
   <si>
-    <t>JURKA Jakub_CZE- JORGENSEN Patrick_DEN</t>
-  </si>
-  <si>
     <t>KOCH Mate Tamas_HUN-SONG Jae Ho_KOR</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VOURINEN Niko_FIN-BARDENET Alexandre_FRA</t>
-  </si>
-  <si>
     <t>Budapest GP</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,9 +240,6 @@
     <t>BERTA Daniel_HUN-STANKEVYCH Volodymyr_UKR</t>
   </si>
   <si>
-    <t>BOREL Yanick_FRA-SHARLAIMOV Vadim_KAZ</t>
-  </si>
-  <si>
     <t>BOREL Yannick_FRA-LOYOLA Neisser_BEL</t>
   </si>
   <si>
@@ -273,15 +258,9 @@
     <t>PETERDI Andras_HUN-CIMINI Gabriele_ITA</t>
   </si>
   <si>
-    <t>SANTARELLI Andrea_ITA-OSMAN-TOUSON Marua_HUN</t>
-  </si>
-  <si>
     <t>VISMARA Federico_ITA-KURBANOV Ruslan_KAZ</t>
   </si>
   <si>
-    <t>VUOLINEN Niko_FIN-SHARLAIMOV Vadim_KAZ</t>
-  </si>
-  <si>
     <t>ZAWROTNIAK Radoslaw_POL-BOREL Yannick_FRA</t>
   </si>
   <si>
@@ -306,9 +285,6 @@
     <t>ALEXANIN Dmitriy_KAZ-PARK Sangyoung_KOR</t>
   </si>
   <si>
-    <t>ALXANIN Dmitriy_KAZ-THOMPSON Soren_USA</t>
-  </si>
-  <si>
     <t>ANTKIEWICZ Mateusz_POL-CAPEK Martin_CZE</t>
   </si>
   <si>
@@ -394,9 +370,6 @@
     <t>PAULOUSKI Dzianis_BLR-LAN Minghao_CHN</t>
   </si>
   <si>
-    <t>PEREILA Yulen_ESP-SZENYI Peter_HUN</t>
-  </si>
-  <si>
     <t>PEREIRA Yulen_ESP-ANOKHIN Vadim_RUS</t>
   </si>
   <si>
@@ -422,12 +395,6 @@
     <t>VISMARA Federico_ITA-HEINZER Max_SUI</t>
   </si>
   <si>
-    <t>VUOLINEN Niko_FIN-LOYOLA Neisser_BEL</t>
-  </si>
-  <si>
-    <t>VUOLINEN Niko_FIN-SIKLOSI Gergely_HUN</t>
-  </si>
-  <si>
     <t>13-14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -468,6 +435,42 @@
   </si>
   <si>
     <t>name of game(fencer_NOC-fencer_NOC)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JURKA Jakub_CZE-JORGENSEN Patrick_DEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOREL Yannick_FRA-SHARLAIMOV Vadim_KAZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VUORINEN Niko_FIN-SHARLAIMOV Vadim_KAZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SANTARELLI Andrea_ITA-OSMANTOUSON Marua_HUN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALEXANIN Dmitriy_KAZ-THOMPSON Soren_USA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEREIRA Yulen_ESP-SZENYI Peter_HUN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VUORINEN Niko_FIN-BARDENET Alexandre_FRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VUORINEN Niko_FIN-LOYOLA Neisser_BEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VUORINEN Niko_FIN-SIKLOSI Gergely_HUN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -837,30 +840,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264F4F92-2EE0-B54D-AC92-D3E8C6A7E504}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -871,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -882,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -893,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -904,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -915,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -926,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -937,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -948,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -959,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -970,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -981,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -992,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1091,996 +1094,996 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
         <v>59</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
         <v>62</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87" t="s">
-        <v>114</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
         <v>132</v>
       </c>
-      <c r="B90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>132</v>
-      </c>
-      <c r="B92" t="s">
-        <v>119</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C142" s="1"/>
     </row>
   </sheetData>
